--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18ABDFA-8959-6542-915C-D03F2D84CCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24061CCA-AB4A-2E4F-A535-9D37FBA1B778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="4420" windowWidth="28040" windowHeight="17440" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Model</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Overall accuracy</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>Diff.</t>
   </si>
 </sst>
 </file>
@@ -56,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -82,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,18 +111,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,101 +451,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="2">
         <v>0.74</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="2">
         <v>0.66100000000000003</v>
       </c>
+      <c r="F3" s="7">
+        <f>D3-E3</f>
+        <v>7.8999999999999959E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="2">
         <v>0.74</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="2">
         <v>0.66100000000000003</v>
       </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F7" si="0">D4-E4</f>
+        <v>7.8999999999999959E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="2">
         <v>0.68300000000000005</v>
       </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999911E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1">
         <v>1024</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="2">
         <v>0.66500000000000004</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.9999999999999907E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24061CCA-AB4A-2E4F-A535-9D37FBA1B778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1069BC35-4FAC-A34B-87D8-ED1B4117B872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Diff.</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -131,12 +140,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,31 +460,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,126 +493,192 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>128</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.74</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="F3" s="7">
-        <f>D3-E3</f>
+      <c r="G3" s="6">
+        <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.74</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F7" si="0">D4-E4</f>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G7" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>128</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>128</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
         <v>1024</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1024</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="5">
         <v>0.68500000000000005</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="5">
         <v>0.70499999999999996</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>-1.9999999999999907E-2</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G9" si="1">E8-F8</f>
+        <v>-1.5999999999999903E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>12244</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.5000000000000084E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1069BC35-4FAC-A34B-87D8-ED1B4117B872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A9C4A2-E3CE-6E44-B7D4-5A26C5A12625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,14 +618,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>0.68500000000000005</v>
+        <v>0.748</v>
       </c>
       <c r="F7" s="5">
-        <v>0.70499999999999996</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>5.9000000000000052E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -642,39 +642,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>0.67300000000000004</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F8" s="5">
-        <v>0.68899999999999995</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" ref="G8:G9" si="1">E8-F8</f>
-        <v>-1.5999999999999903E-2</v>
+        <v>-3.8999999999999924E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
-        <v>12244</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>-9.5000000000000084E-2</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A9C4A2-E3CE-6E44-B7D4-5A26C5A12625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D86312-BBDF-3B45-BB61-D5E68D58E5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,10 +653,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D86312-BBDF-3B45-BB61-D5E68D58E5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430ED7FD-868E-7E4D-8667-30976FD3AD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,18 +653,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430ED7FD-868E-7E4D-8667-30976FD3AD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F10A7C-E53C-564F-A4D1-C311DFFECFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>Independent layer 0 and incremental layer 0 will have the same accuracy 
+if they have the same initializations</t>
   </si>
 </sst>
 </file>
@@ -97,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,31 +124,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,10 +478,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -504,7 +503,7 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -527,7 +526,7 @@
       <c r="F3" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
@@ -551,7 +550,7 @@
       <c r="F4" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G7" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
@@ -575,7 +574,7 @@
       <c r="F5" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
@@ -599,7 +598,7 @@
       <c r="F6" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
@@ -608,22 +607,22 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>1024</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.748</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>0.68899999999999995</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>5.9000000000000052E-2</v>
       </c>
@@ -632,38 +631,59 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1024</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
         <f t="shared" ref="G8:G9" si="1">E8-F8</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A9:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F10A7C-E53C-564F-A4D1-C311DFFECFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CC573-0780-F743-B3F2-9FF7F424B538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G7" si="0">E4-F4</f>
+        <f t="shared" ref="G4:G8" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
@@ -632,38 +632,53 @@
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>1024</v>
+        <v>12288</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
       <c r="E8" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F8" s="6">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.5000000000000084E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G9" si="1">E8-F8</f>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9" si="1">E9-F9</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -680,10 +695,19 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A9:G11"/>
+    <mergeCell ref="A10:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CC573-0780-F743-B3F2-9FF7F424B538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0F353B-C54E-DE41-A2AB-8A1064AB2021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,14 +617,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>0.748</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="F7" s="6">
-        <v>0.68899999999999995</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>5.9000000000000052E-2</v>
+        <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0F353B-C54E-DE41-A2AB-8A1064AB2021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05612092-FAE6-4B41-BCF5-5F29986BF49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05612092-FAE6-4B41-BCF5-5F29986BF49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B1B94-6874-9E4E-972A-A7BB011FEB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Overall accuracy</t>
   </si>
   <si>
-    <t>batch size</t>
-  </si>
-  <si>
     <t>Diff.</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   <si>
     <t>Independent layer 0 and incremental layer 0 will have the same accuracy 
 if they have the same initializations</t>
+  </si>
+  <si>
+    <t>Batch size</t>
   </si>
 </sst>
 </file>
@@ -130,18 +130,28 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +471,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,235 +484,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>128</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>0.74</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>128</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>0.74</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G8" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>128</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>128</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
         <v>1024</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>1024</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>0.67800000000000005</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>0.67300000000000004</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5">
         <v>12288</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>-9.5000000000000084E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5">
         <v>1024</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="6">
         <f t="shared" ref="G9" si="1">E9-F9</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B1B94-6874-9E4E-972A-A7BB011FEB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F6F38-9FF2-EE4F-873D-51C8B5A3784B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F6F38-9FF2-EE4F-873D-51C8B5A3784B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922BCC3-1C4A-6C4F-8828-0DF6CF41AB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -130,15 +130,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -152,6 +143,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,235 +484,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>128</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>0.74</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>0.74</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <f t="shared" ref="G4:G8" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>128</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>128</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1024</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>1024</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>0.67800000000000005</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>0.67300000000000004</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>12288</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="5">
+        <v>0.502</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.1000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>-9.5000000000000084E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <f t="shared" ref="G9" si="1">E9-F9</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922BCC3-1C4A-6C4F-8828-0DF6CF41AB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE731178-4362-4BE0-8FC2-0AA5AF65E6ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -68,6 +62,9 @@
   </si>
   <si>
     <t>Batch size</t>
+  </si>
+  <si>
+    <t>Epochs</t>
   </si>
 </sst>
 </file>
@@ -128,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +140,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -468,256 +471,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="8"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>128</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.74</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G3" s="3">
-        <f>E3-F3</f>
+      <c r="H3" s="3">
+        <f>F3-G3</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>0.74</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G8" si="0">E4-F4</f>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>128</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>128</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1024</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>1024</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>0.67800000000000005</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>0.67300000000000004</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>12288</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>0.502</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>-4.1000000000000036E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>1024</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" ref="G9" si="1">E9-F9</f>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9" si="1">F9-G9</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A10:G12"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A10:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE731178-4362-4BE0-8FC2-0AA5AF65E6ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D5DE92-7060-43A3-918F-8EBC0A354032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H8" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H9" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
@@ -666,7 +666,9 @@
       <c r="B8" s="2">
         <v>12288</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
@@ -685,46 +687,63 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>1024</v>
+        <v>12288</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" ref="H9" si="1">F9-G9</f>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10" si="1">F10-G10</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -743,10 +762,20 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A10:H12"/>
+    <mergeCell ref="A11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D5DE92-7060-43A3-918F-8EBC0A354032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC83AE0-15C5-4C96-8C7B-D30DE433C7F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Epochs</t>
+  </si>
+  <si>
+    <t>Early Stopping</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +149,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -471,16 +477,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
@@ -492,10 +500,10 @@
       <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,35 +582,35 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H9" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H10" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>128</v>
       </c>
-      <c r="C5" s="7">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="E5" s="8">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.70799999999999996</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="G5" s="3">
-        <v>0.68300000000000005</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
+        <v>4.599999999999993E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,44 +627,44 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>1024</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0.67600000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="G6" s="3">
-        <v>0.66500000000000004</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>1.100000000000001E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
+        <v>128</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>1024</v>
       </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.67300000000000004</v>
+      <c r="F7" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.66500000000000004</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
+        <v>1.100000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -664,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>12288</v>
+        <v>1024</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -676,25 +684,25 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>0.502</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="G8" s="5">
-        <v>0.54300000000000004</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>-4.1000000000000036E-2</v>
+        <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>12288</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -703,79 +711,106 @@
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>0.66700000000000004</v>
+        <v>0.502</v>
       </c>
       <c r="G9" s="5">
-        <v>0.65300000000000002</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>1.4000000000000012E-2</v>
+        <v>-4.1000000000000036E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>1024</v>
+        <v>12288</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H10" s="3">
-        <f t="shared" ref="H10" si="1">F10-G10</f>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11" si="1">F11-G11</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A11:H13"/>
+    <mergeCell ref="A12:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC83AE0-15C5-4C96-8C7B-D30DE433C7F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39A02DF-71C3-4542-BE07-7C571947F62B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>CodeGPTPy</t>
   </si>
   <si>
-    <t>Overall accuracy</t>
-  </si>
-  <si>
     <t>Diff.</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Early Stopping</t>
+  </si>
+  <si>
+    <t>Overall accuracy on test</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="1"/>
@@ -511,13 +511,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>128</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>1024</v>
@@ -678,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39A02DF-71C3-4542-BE07-7C571947F62B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E449BA-0EFA-B74E-A70A-499373D341E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -479,22 +485,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="6"/>
@@ -506,7 +512,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +565,7 @@
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,7 +592,7 @@
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -613,7 +619,7 @@
         <v>4.599999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -640,7 +646,7 @@
         <v>2.4999999999999911E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -667,7 +673,7 @@
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -694,7 +700,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -721,7 +727,7 @@
         <v>-4.1000000000000036E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -748,7 +754,7 @@
         <v>1.4000000000000012E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -775,7 +781,7 @@
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -787,7 +793,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -797,7 +803,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E449BA-0EFA-B74E-A70A-499373D341E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBDD32F-98CA-1343-9427-2E630643125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Overall accuracy on test</t>
+  </si>
+  <si>
+    <t>Special setups</t>
+  </si>
+  <si>
+    <t>minl2=1e-4,minl1=1e-4</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +161,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,21 +507,25 @@
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -565,7 +578,7 @@
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,11 +601,11 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H10" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H11" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -619,34 +632,37 @@
         <v>4.599999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
         <v>128</v>
       </c>
-      <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="G6" s="3">
-        <v>0.68300000000000005</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -660,52 +676,52 @@
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>1024</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0.67600000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="G7" s="3">
-        <v>0.66500000000000004</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.4999999999999911E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
+        <v>128</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <v>1024</v>
       </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.67300000000000004</v>
+      <c r="F8" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.66500000000000004</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>12288</v>
+        <v>1024</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -717,25 +733,25 @@
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>0.502</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="G9" s="5">
-        <v>0.54300000000000004</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>-4.1000000000000036E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>12288</v>
       </c>
       <c r="C10" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -744,79 +760,106 @@
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0.66700000000000004</v>
+        <v>0.502</v>
       </c>
       <c r="G10" s="5">
-        <v>0.65300000000000002</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>1.4000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+        <v>-4.1000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>1024</v>
+        <v>12288</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" ref="H11" si="1">F11-G11</f>
+      <c r="H12" s="3">
+        <f t="shared" ref="H12" si="1">F12-G12</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A12:H14"/>
+    <mergeCell ref="A13:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBDD32F-98CA-1343-9427-2E630643125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70032A-550E-0649-BC0B-E78BFD2E5A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,9 +521,6 @@
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="1"/>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -549,6 +546,9 @@
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70032A-550E-0649-BC0B-E78BFD2E5A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4DAC11-B1E3-DC43-A221-BAA253678735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -76,10 +76,13 @@
     <t>Overall accuracy on test</t>
   </si>
   <si>
-    <t>Special setups</t>
-  </si>
-  <si>
     <t>minl2=1e-4,minl1=1e-4</t>
+  </si>
+  <si>
+    <t>Other setups</t>
+  </si>
+  <si>
+    <t>Above + run 5 times each</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -577,6 +581,7 @@
         <f>F3-G3</f>
         <v>7.8999999999999959E-2</v>
       </c>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -601,7 +606,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H11" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H12" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
     </row>
@@ -659,34 +664,37 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
         <v>128</v>
       </c>
-      <c r="C7" s="7">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.70799999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="3">
-        <v>0.68300000000000005</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
+        <v>-2.200000000000002E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -703,44 +711,44 @@
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>1024</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0.67600000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.66500000000000004</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>1.100000000000001E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
+        <v>128</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
         <v>1024</v>
       </c>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.67300000000000004</v>
+      <c r="F9" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.66500000000000004</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
+        <v>1.100000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -748,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>12288</v>
+        <v>1024</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -760,25 +768,25 @@
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0.502</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="G10" s="5">
-        <v>0.54300000000000004</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>-4.1000000000000036E-2</v>
+        <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>12288</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -787,57 +795,74 @@
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>0.66700000000000004</v>
+        <v>0.502</v>
       </c>
       <c r="G11" s="5">
-        <v>0.65300000000000002</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>1.4000000000000012E-2</v>
+        <v>-4.1000000000000036E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>1024</v>
+        <v>12288</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" ref="H12" si="1">F12-G12</f>
+      <c r="H13" s="3">
+        <f t="shared" ref="H13" si="1">F13-G13</f>
         <v>-3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -856,10 +881,20 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="A14:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4DAC11-B1E3-DC43-A221-BAA253678735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387E58B-1D0A-3540-BB37-C94EF50ADB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Adam</t>
-  </si>
-  <si>
-    <t>SGD</t>
   </si>
   <si>
     <t>Independent layer 0 and incremental layer 0 will have the same accuracy 
@@ -116,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,22 +136,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,19 +173,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,390 +513,317 @@
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>128</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.74</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>F3-G3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>128</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.74</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H12" si="0">F4-G4</f>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H10" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>128</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.73099999999999998</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.68500000000000005</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>4.599999999999993E-2</v>
       </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>128</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
+      <c r="I6" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>128</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.7</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
+      <c r="I7" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.748</v>
+      </c>
+      <c r="H8" s="2">
+        <f>F8-G8</f>
+        <v>-3.8000000000000034E-2</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
         <v>128</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="5">
         <v>128</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="4">
         <v>1024</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1024</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12288</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.502</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>-4.1000000000000036E-2</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>12288</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000012E-2</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1024</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" ref="H13" si="1">F13-G13</f>
-        <v>-3.8999999999999924E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A14:H16"/>
+    <mergeCell ref="A11:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387E58B-1D0A-3540-BB37-C94EF50ADB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB1D89-397D-264F-AEF6-5D6CC32048F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H10" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H11" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="I4" s="10"/>
@@ -718,47 +718,47 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.748</v>
+      <c r="F8" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.77200000000000002</v>
       </c>
       <c r="H8" s="2">
-        <f>F8-G8</f>
-        <v>-3.8000000000000034E-2</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>13</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-2.9000000000000026E-2</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
-        <v>128</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.68300000000000005</v>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.748</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
-      </c>
-      <c r="I9" s="10"/>
+        <f>F9-G9</f>
+        <v>-3.8000000000000034E-2</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -774,41 +774,59 @@
         <v>7</v>
       </c>
       <c r="E10" s="4">
-        <v>1024</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="G10" s="2">
-        <v>0.66500000000000004</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>128</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1024</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -820,10 +838,20 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A11:H13"/>
+    <mergeCell ref="A12:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB1D89-397D-264F-AEF6-5D6CC32048F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A0DC9-E214-D947-840B-966E8812A540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A0DC9-E214-D947-840B-966E8812A540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C7665-9FB3-2647-B611-117591529668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H11" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H12" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="I4" s="10"/>
@@ -764,79 +764,97 @@
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <f>F10-G10</f>
+        <v>-3.5000000000000031E-2</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
         <v>128</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
         <v>128</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
         <v>1024</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -848,10 +866,20 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A12:H14"/>
+    <mergeCell ref="A13:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C7665-9FB3-2647-B611-117591529668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E2924F-8EF0-7B42-94A9-9A463E189DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Above + run 5 times each</t>
+  </si>
+  <si>
+    <t>run 5 times each</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +612,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H12" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H13" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="I4" s="10"/>
@@ -765,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -776,95 +779,108 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="H10" s="2">
-        <f>F10-G10</f>
-        <v>-3.5000000000000031E-2</v>
-      </c>
-      <c r="I10" s="10"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <f>F11-G11</f>
+        <v>-3.5000000000000031E-2</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
         <v>128</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
         <v>128</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
         <v>1024</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -876,10 +892,20 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="A14:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E2924F-8EF0-7B42-94A9-9A463E189DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650F043-DF32-A64B-AB09-47CC383FD7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H13" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H14" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="I4" s="10"/>
@@ -779,9 +779,16 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="H10" s="2">
+        <f>F10-G10</f>
+        <v>3.6000000000000032E-2</v>
+      </c>
       <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
@@ -791,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -800,97 +807,108 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="H11" s="2">
-        <f>F11-G11</f>
-        <v>-3.5000000000000031E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <f>F12-G12</f>
+        <v>-3.5000000000000031E-2</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
         <v>128</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
         <v>128</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
         <v>1024</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -902,10 +920,20 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A14:H16"/>
+    <mergeCell ref="A15:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650F043-DF32-A64B-AB09-47CC383FD7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6373BB-887B-0743-A28B-63D6497ECEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H14" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H15" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="I4" s="10"/>
@@ -706,62 +706,55 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>128</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
         <v>1024</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.74299999999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.748</v>
-      </c>
-      <c r="H9" s="2">
-        <f>F9-G9</f>
-        <v>-3.8000000000000034E-2</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -780,17 +773,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.78900000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="G10" s="3">
-        <v>0.753</v>
+        <v>0.748</v>
       </c>
       <c r="H10" s="2">
         <f>F10-G10</f>
-        <v>3.6000000000000032E-2</v>
+        <v>-3.8000000000000034E-2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -807,118 +800,128 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="H11" s="2">
+        <f>F11-G11</f>
+        <v>3.6000000000000032E-2</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="H12" s="2">
-        <f>F12-G12</f>
-        <v>-3.5000000000000031E-2</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <f>F13-G13</f>
+        <v>-3.5000000000000031E-2</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
         <v>128</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
         <v>128</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
         <v>1024</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
@@ -930,10 +933,20 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A15:H17"/>
+    <mergeCell ref="A16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6373BB-887B-0743-A28B-63D6497ECEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142E3AB-35B5-425D-A44D-CEFC215F420A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -173,10 +167,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,8 +178,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,36 +497,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,11 +551,11 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -587,9 +581,9 @@
         <f>F3-G3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -615,9 +609,9 @@
         <f t="shared" ref="H4:H15" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -643,9 +637,9 @@
         <f t="shared" si="0"/>
         <v>4.599999999999993E-2</v>
       </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -671,11 +665,11 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -701,11 +695,11 @@
         <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -721,14 +715,21 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="2">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.746</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -754,9 +755,9 @@
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -782,11 +783,11 @@
         <f>F10-G10</f>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -812,11 +813,11 @@
         <f>F11-G11</f>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -825,9 +826,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -853,9 +854,9 @@
         <f>F13-G13</f>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -881,9 +882,9 @@
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -909,39 +910,39 @@
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142E3AB-35B5-425D-A44D-CEFC215F420A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AC8F6-A670-42A4-806E-8C7B37BFB65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Diff.</t>
-  </si>
-  <si>
-    <t>Optimizer</t>
-  </si>
-  <si>
-    <t>Adam</t>
   </si>
   <si>
     <t>Independent layer 0 and incremental layer 0 will have the same accuracy 
@@ -67,16 +61,16 @@
     <t>Overall accuracy on test</t>
   </si>
   <si>
-    <t>minl2=1e-4,minl1=1e-4</t>
-  </si>
-  <si>
     <t>Other setups</t>
   </si>
   <si>
-    <t>Above + run 5 times each</t>
-  </si>
-  <si>
     <t>run 5 times each</t>
+  </si>
+  <si>
+    <t>Stronger penalty</t>
+  </si>
+  <si>
+    <t>Stronger penalty + run 5 times each</t>
   </si>
 </sst>
 </file>
@@ -150,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,56 +503,51 @@
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -565,25 +557,22 @@
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.74</v>
       </c>
       <c r="F3" s="2">
-        <v>0.74</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="G3" s="2">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="H3" s="2">
-        <f>F3-G3</f>
+        <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -593,25 +582,22 @@
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.74</v>
       </c>
       <c r="F4" s="2">
-        <v>0.74</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="G4" s="2">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H15" si="0">F4-G4</f>
+        <f t="shared" ref="G4:G15" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -619,27 +605,24 @@
         <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.73099999999999998</v>
       </c>
       <c r="F5" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="G5" s="2">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>4.599999999999993E-2</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -647,29 +630,26 @@
         <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.70799999999999996</v>
       </c>
       <c r="F6" s="2">
-        <v>0.70799999999999996</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="G6" s="2">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -677,29 +657,26 @@
         <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.7</v>
       </c>
       <c r="F7" s="2">
-        <v>0.7</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="G7" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -707,29 +684,26 @@
         <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.76900000000000002</v>
       </c>
       <c r="F8" s="2">
-        <v>0.76900000000000002</v>
+        <v>0.746</v>
       </c>
       <c r="G8" s="2">
-        <v>0.746</v>
-      </c>
-      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -737,27 +711,24 @@
         <v>1024</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.74299999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="G9" s="2">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -765,29 +736,26 @@
         <v>1024</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.71</v>
       </c>
       <c r="F10" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="G10" s="3">
         <v>0.748</v>
       </c>
-      <c r="H10" s="2">
-        <f>F10-G10</f>
+      <c r="G10" s="2">
+        <f>E10-F10</f>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -795,40 +763,46 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.78900000000000003</v>
       </c>
       <c r="F11" s="3">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="G11" s="3">
         <v>0.753</v>
       </c>
-      <c r="H11" s="2">
-        <f>F11-G11</f>
+      <c r="G11" s="2">
+        <f>E11-F11</f>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -836,27 +810,24 @@
         <v>16384</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.73899999999999999</v>
       </c>
       <c r="F13" s="3">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="G13" s="3">
         <v>0.77400000000000002</v>
       </c>
-      <c r="H13" s="2">
-        <f>F13-G13</f>
+      <c r="G13" s="2">
+        <f>E13-F13</f>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -866,25 +837,22 @@
       <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
+      <c r="E14" s="2">
+        <v>0.70799999999999996</v>
+      </c>
       <c r="F14" s="2">
-        <v>0.70799999999999996</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G14" s="2">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -894,60 +862,54 @@
       <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="4">
         <v>1024</v>
       </c>
+      <c r="E15" s="2">
+        <v>0.67600000000000005</v>
+      </c>
       <c r="F15" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G15" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A16:H18"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A16:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AC8F6-A670-42A4-806E-8C7B37BFB65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE59B7DE-1454-4642-9FDF-02EE53A1FE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -663,44 +663,44 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.746</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E7-F7</f>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>128</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.7</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>128</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.746</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.300000000000002E-2</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE59B7DE-1454-4642-9FDF-02EE53A1FE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAD2381-3612-413E-93A5-4009EAC4AEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -64,13 +64,13 @@
     <t>Other setups</t>
   </si>
   <si>
-    <t>run 5 times each</t>
-  </si>
-  <si>
     <t>Stronger penalty</t>
   </si>
   <si>
-    <t>Stronger penalty + run 5 times each</t>
+    <t>BO5</t>
+  </si>
+  <si>
+    <t>Stronger penalty + BO5</t>
   </si>
 </sst>
 </file>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,6 +140,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -161,11 +174,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -176,6 +184,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,21 +509,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10"/>
+    <col min="8" max="8" width="30.375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -514,12 +533,12 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="7"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -543,7 +562,7 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -570,7 +589,7 @@
         <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -592,10 +611,10 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G15" si="0">E4-F4</f>
+        <f t="shared" ref="G4:G16" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -620,7 +639,7 @@
         <f t="shared" si="0"/>
         <v>4.599999999999993E-2</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -641,12 +660,12 @@
       <c r="F6" s="2">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,18 +681,18 @@
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.76900000000000002</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>0.746</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <f>E7-F7</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,11 +714,11 @@
       <c r="F8" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -722,11 +741,11 @@
       <c r="F9" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -747,43 +766,43 @@
       <c r="F10" s="3">
         <v>0.748</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="12">
         <f>E10-F10</f>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>13</v>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
         <v>1024</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0.753</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <f>E11-F11</f>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1">
@@ -795,10 +814,17 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="3">
+        <v>0.749</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G12" s="12">
+        <f>E12-F12</f>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -821,95 +847,115 @@
       <c r="F13" s="3">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="12">
         <f>E13-F13</f>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
         <v>128</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
         <v>128</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>1024</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="12">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:G18"/>
+    <mergeCell ref="A17:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAD2381-3612-413E-93A5-4009EAC4AEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2149DA1-5EDA-4E4E-83B4-2BE9AE3B30E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -866,9 +866,16 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="12">
+        <f>E14-F14</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>13</v>
       </c>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2149DA1-5EDA-4E4E-83B4-2BE9AE3B30E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263BD640-0FDA-435F-B90D-B652B6D50E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,16 +95,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -153,11 +165,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +223,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,8 +238,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,21 +576,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="10"/>
-    <col min="8" max="8" width="30.375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="10.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="12"/>
+    <col min="8" max="8" width="30.375" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,16 +632,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="15">
         <v>128</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
       <c r="E3" s="2">
@@ -589,21 +654,15 @@
         <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>128</v>
-      </c>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
+      <c r="D4" s="16"/>
       <c r="E4" s="2">
         <v>0.74</v>
       </c>
@@ -617,18 +676,12 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>128</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="2">
         <v>0.73099999999999998</v>
       </c>
@@ -642,25 +695,17 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>128</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="2">
         <v>0.70799999999999996</v>
       </c>
       <c r="F6" s="2">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -669,52 +714,36 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>128</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="10">
         <v>0.76900000000000002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>0.746</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="10">
         <f>E7-F7</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>128</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="2">
         <v>0.7</v>
       </c>
       <c r="F8" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
@@ -723,50 +752,38 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18">
         <v>1024</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="2">
         <v>0.74299999999999999</v>
       </c>
       <c r="F9" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3">
         <v>0.71</v>
       </c>
       <c r="F10" s="3">
         <v>0.748</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="14">
         <f>E10-F10</f>
         <v>-3.8000000000000034E-2</v>
       </c>
@@ -775,52 +792,36 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1024</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="10">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>0.753</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <f>E11-F11</f>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
+      <c r="A12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3">
         <v>0.749</v>
       </c>
       <c r="F12" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="14">
         <f>E12-F12</f>
         <v>3.8000000000000034E-2</v>
       </c>
@@ -829,61 +830,47 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
         <v>16384</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="3">
         <v>0.73899999999999999</v>
       </c>
       <c r="F13" s="3">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="14">
         <f>E13-F13</f>
         <v>-3.5000000000000031E-2</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>16384</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="11">
         <v>0.77100000000000002</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="11">
         <v>0.75</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="21">
         <f>E14-F14</f>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="16"/>
       <c r="B15" s="5">
         <v>128</v>
       </c>
@@ -899,16 +886,14 @@
       <c r="F15" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="17"/>
       <c r="B16" s="5">
         <v>128</v>
       </c>
@@ -924,7 +909,7 @@
       <c r="F16" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
@@ -960,9 +945,17 @@
       <c r="G19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A17:G19"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D3:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263BD640-0FDA-435F-B90D-B652B6D50E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD84C8-7F1A-4C74-BF50-2FF4927435A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -116,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,49 +152,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,28 +198,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:H14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,16 +574,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="6">
         <v>128</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="2">
@@ -657,12 +599,12 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2">
         <v>0.74</v>
       </c>
@@ -670,18 +612,18 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G16" si="0">E4-F4</f>
+        <f t="shared" ref="G4:G17" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2">
         <v>0.73099999999999998</v>
       </c>
@@ -695,17 +637,17 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2">
         <v>0.70799999999999996</v>
       </c>
       <c r="F6" s="2">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -714,10 +656,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="10">
         <v>0.76900000000000002</v>
       </c>
@@ -733,17 +675,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2">
         <v>0.7</v>
       </c>
       <c r="F8" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>-2.200000000000002E-2</v>
       </c>
@@ -752,190 +694,197 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14">
         <v>1024</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="2">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.74299999999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="3">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3">
         <v>0.71</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>0.748</v>
       </c>
-      <c r="G10" s="14">
-        <f>E10-F10</f>
+      <c r="G11" s="2">
+        <f>E11-F11</f>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="10">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>0.753</v>
       </c>
-      <c r="G11" s="10">
-        <f>E11-F11</f>
+      <c r="G12" s="10">
+        <f>E12-F12</f>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3">
         <v>0.749</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="G12" s="14">
-        <f>E12-F12</f>
+      <c r="G13" s="2">
+        <f>E13-F13</f>
         <v>3.8000000000000034E-2</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="14">
         <v>16384</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="3">
         <v>0.73899999999999999</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G13" s="14">
-        <f>E13-F13</f>
+      <c r="G14" s="2">
+        <f>E14-F14</f>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="11">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11">
         <v>0.77100000000000002</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>0.75</v>
       </c>
-      <c r="G14" s="21">
-        <f>E14-F14</f>
+      <c r="G15" s="11">
+        <f>E15-F15</f>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5">
         <v>128</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="5">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5">
         <v>128</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <v>10</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>1024</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -944,18 +893,28 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A17:G19"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D3:D14"/>
+    <mergeCell ref="A18:G20"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="D10:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD84C8-7F1A-4C74-BF50-2FF4927435A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E662AC2-A174-49B0-BD88-24510AC1901D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -116,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,12 +152,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,6 +201,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -186,19 +228,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,23 +564,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="12"/>
-    <col min="8" max="8" width="30.375" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="12"/>
+    <col min="1" max="1" width="10.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10"/>
+    <col min="8" max="8" width="30.375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,10 +588,10 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
@@ -574,16 +622,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="17">
         <v>128</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <v>0</v>
       </c>
       <c r="E3" s="2">
@@ -596,15 +644,15 @@
         <f>E3-F3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2">
         <v>0.74</v>
       </c>
@@ -612,18 +660,18 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G17" si="0">E4-F4</f>
+        <f t="shared" ref="G4:G20" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2">
         <v>0.73099999999999998</v>
       </c>
@@ -637,10 +685,10 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2">
         <v>0.70799999999999996</v>
       </c>
@@ -656,29 +704,29 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8">
         <v>0.76900000000000002</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.746</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f>E7-F7</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="2">
         <v>0.7</v>
       </c>
@@ -694,227 +742,283 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="2">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.3000000000000029E-2</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="14">
+      <c r="A10" s="12"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="6">
         <v>1024</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
       <c r="E10" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="F10" s="2">
-        <v>0.77200000000000002</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20">
+        <v>1024</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="3">
         <v>0.71</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>0.748</v>
       </c>
-      <c r="G11" s="2">
-        <f>E11-F11</f>
+      <c r="G12" s="2">
+        <f>E12-F12</f>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="8">
         <v>0.753</v>
       </c>
-      <c r="G12" s="10">
-        <f>E12-F12</f>
+      <c r="G13" s="8">
+        <f>E13-F13</f>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="3">
         <v>0.749</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>0.71099999999999997</v>
-      </c>
-      <c r="G13" s="2">
-        <f>E13-F13</f>
-        <v>3.8000000000000034E-2</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="14">
-        <v>16384</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.77400000000000002</v>
       </c>
       <c r="G14" s="2">
         <f>E14-F14</f>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="20">
+        <v>16384</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <f>E17-F17</f>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="11">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="9">
         <v>0.77100000000000002</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F18" s="9">
         <v>0.75</v>
       </c>
-      <c r="G15" s="11">
-        <f>E15-F15</f>
+      <c r="G18" s="9">
+        <f>E18-F18</f>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7">
         <v>128</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C19" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E19" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F19" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5">
         <v>128</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C20" s="5">
         <v>10</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D20" s="4">
         <v>1024</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E20" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A18:G20"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="A21:G23"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="D3:D8"/>
-    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D11:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E662AC2-A174-49B0-BD88-24510AC1901D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409EA12-B10F-4EAB-B978-BCE923FFAD47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -564,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,7 +623,7 @@
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>128</v>
       </c>
       <c r="C3" s="4">
@@ -648,7 +646,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4">
         <v>10</v>
       </c>
@@ -660,15 +658,15 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G20" si="0">E4-F4</f>
+        <f t="shared" ref="G4:G22" si="0">E4-F4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="12"/>
@@ -686,8 +684,8 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="12"/>
       <c r="E6" s="2">
         <v>0.70799999999999996</v>
@@ -705,8 +703,8 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="12"/>
       <c r="E7" s="8">
         <v>0.76900000000000002</v>
@@ -724,8 +722,8 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="12"/>
       <c r="E8" s="2">
         <v>0.7</v>
@@ -743,8 +741,8 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="4">
         <v>1</v>
       </c>
@@ -764,8 +762,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6">
         <v>1024</v>
       </c>
@@ -785,13 +783,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>1024</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -808,9 +806,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3">
         <v>0.71</v>
       </c>
@@ -827,9 +825,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="8">
         <v>0.78900000000000003</v>
       </c>
@@ -846,9 +844,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3">
         <v>0.749</v>
       </c>
@@ -865,41 +863,57 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="3">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15-F15</f>
+        <v>-1.6000000000000014E-2</v>
+      </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="6">
         <v>1024</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="3">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G16" s="2">
+        <f>E16-F16</f>
+        <v>-2.8000000000000025E-2</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>16384</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
       <c r="E17" s="3">
         <v>0.73899999999999999</v>
       </c>
@@ -916,7 +930,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="9">
         <v>0.77100000000000002</v>
       </c>
@@ -933,88 +947,113 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="7">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7">
         <v>128</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C21" s="7">
         <v>10</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E21" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="5">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="5">
         <v>128</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C22" s="5">
         <v>10</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D22" s="4">
         <v>1024</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="2">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="2">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A21:G23"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A23:G25"/>
+    <mergeCell ref="A3:A22"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C5:C10"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409EA12-B10F-4EAB-B978-BCE923FFAD47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A0F91-475D-41C3-94CF-308EE2D31454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,7 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -564,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -952,10 +951,19 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="E19" s="6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="G19" s="6">
+        <f>E19-F19</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
@@ -964,10 +972,19 @@
       <c r="D20" s="6">
         <v>1024</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="E20" s="6">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="G20" s="6">
+        <f>E20-F20</f>
+        <v>-4.4000000000000039E-2</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -1060,5 +1077,6 @@
     <mergeCell ref="D11:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A0F91-475D-41C3-94CF-308EE2D31454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD077F-E674-4CCB-8B48-B913A81FA934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Stronger penalty + BO5</t>
+  </si>
+  <si>
+    <t>Optim</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -80,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,28 +104,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,40 +149,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -198,22 +167,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -228,27 +188,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,520 +505,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="10"/>
-    <col min="8" max="8" width="30.375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5"/>
+    <col min="9" max="9" width="30.375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="8">
         <v>128</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="1">
         <v>0.74</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G3" s="2">
-        <f>E3-F3</f>
+      <c r="H3" s="1">
+        <f>F3-G3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="4">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="2">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1">
         <v>0.74</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G22" si="0">E4-F4</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H25" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="2">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="1">
         <v>0.68500000000000005</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>4.599999999999993E-2</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="2">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <f>F7-G7</f>
+        <v>-2.200000000000002E-2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G8" s="3">
         <v>0.746</v>
       </c>
-      <c r="G7" s="8">
-        <f>E7-F7</f>
+      <c r="H8" s="3">
+        <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.200000000000002E-2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="1">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="1">
         <v>0.77</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="6">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3">
         <v>1024</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="1">
         <v>0.78600000000000003</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="19">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="12">
         <v>1024</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="1">
         <v>0.74299999999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="3">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2">
         <v>0.71</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="2">
         <v>0.748</v>
       </c>
-      <c r="G12" s="2">
-        <f>E12-F12</f>
+      <c r="H12" s="1">
+        <f>F12-G12</f>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H13" s="1">
+        <f>F13-G13</f>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G14" s="3">
         <v>0.753</v>
       </c>
-      <c r="G13" s="8">
-        <f>E13-F13</f>
+      <c r="H14" s="3">
+        <f>F14-G14</f>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="3">
-        <v>0.749</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="G14" s="2">
-        <f>E14-F14</f>
-        <v>3.8000000000000034E-2</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="2">
         <v>0.79</v>
       </c>
-      <c r="G15" s="2">
-        <f>E15-F15</f>
+      <c r="H15" s="1">
+        <f>F15-G15</f>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H16" s="1">
+        <f>F16-G16</f>
+        <v>-2.8000000000000025E-2</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H17" s="1">
+        <f>F17-G17</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H18" s="1">
+        <f>F18-G18</f>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <f>F19-G19</f>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="12">
+        <v>16384</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H20" s="1">
+        <f>F20-G20</f>
+        <v>-3.5000000000000031E-2</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="3">
+        <f>F21-G21</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H22" s="3">
+        <f>F22-G22</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="3">
         <v>1024</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="G16" s="2">
-        <f>E16-F16</f>
-        <v>-2.8000000000000025E-2</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="19">
-        <v>16384</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="G17" s="2">
-        <f>E17-F17</f>
-        <v>-3.5000000000000031E-2</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="9">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="G18" s="9">
-        <f>E18-F18</f>
-        <v>2.1000000000000019E-2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="6">
+      <c r="F23" s="3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H23" s="3">
+        <f>F23-G23</f>
+        <v>-4.4000000000000039E-2</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4">
+        <v>128</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="6">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="G19" s="6">
-        <f>E19-F19</f>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="G20" s="6">
-        <f>E20-F20</f>
-        <v>-4.4000000000000039E-2</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7">
-        <v>128</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="F24" s="1">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G24" s="1">
         <v>0.68300000000000005</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H24" s="1">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4">
         <v>128</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C25" s="4">
         <v>10</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D25" s="4"/>
+      <c r="E25" s="3">
         <v>1024</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F25" s="1">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G25" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H25" s="1">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A23:G25"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="D3:D8"/>
+  <mergeCells count="18">
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D3:D16"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A26:H28"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="E3:E8"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD077F-E674-4CCB-8B48-B913A81FA934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F49EC-B0DE-4EF0-A1A2-CF6F1C59CB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>Max diff.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,11 +155,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,9 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -189,6 +216,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,39 +553,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="5"/>
-    <col min="9" max="9" width="30.375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="5"/>
+    <col min="1" max="1" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="4"/>
+    <col min="10" max="10" width="30.375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,27 +608,30 @@
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -592,16 +644,19 @@
         <f>F3-G3</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -609,19 +664,22 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H25" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H10" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -632,14 +690,17 @@
         <f t="shared" si="0"/>
         <v>4.599999999999993E-2</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -650,16 +711,19 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -670,16 +734,19 @@
         <f>F7-G7</f>
         <v>-2.200000000000002E-2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -690,15 +757,19 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="16">
+        <f>G10-F9</f>
+        <v>4.9000000000000044E-2</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -712,13 +783,14 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -732,380 +804,318 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12">
-        <v>1024</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
+      <c r="I10" s="14"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="11">
+        <v>1044</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.77200000000000002</v>
+      <c r="F11" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.748</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.9000000000000026E-2</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <f>F11-G11</f>
+        <v>-3.8000000000000034E-2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2">
-        <v>0.71</v>
+        <v>0.749</v>
       </c>
       <c r="G12" s="2">
-        <v>0.748</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="H12" s="1">
         <f>F12-G12</f>
-        <v>-3.8000000000000034E-2</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2">
-        <v>0.749</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="H13" s="1">
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="H13" s="3">
         <f>F13-G13</f>
-        <v>3.8000000000000034E-2</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="3">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.753</v>
-      </c>
-      <c r="H14" s="3">
+        <v>3.6000000000000032E-2</v>
+      </c>
+      <c r="I13" s="16">
+        <f>G14-G13</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="H14" s="1">
         <f>F14-G14</f>
-        <v>3.6000000000000032E-2</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8"/>
+        <v>-1.6000000000000014E-2</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>1024</v>
       </c>
       <c r="F15" s="2">
-        <v>0.77400000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>0.79</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="H15" s="1">
         <f>F15-G15</f>
-        <v>-1.6000000000000014E-2</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
+        <v>-2.8000000000000025E-2</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E16" s="3">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="G16" s="2">
-        <v>0.78400000000000003</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="H16" s="1">
         <f>F16-G16</f>
-        <v>-2.8000000000000025E-2</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="I16" s="16">
+        <f>G16-F18</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>0.80200000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G17" s="2">
-        <v>0.81200000000000006</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="H17" s="1">
         <f>F17-G17</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>1024</v>
       </c>
       <c r="F18" s="2">
-        <v>0.77400000000000002</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="G18" s="2">
-        <v>0.77900000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="H18" s="1">
         <f>F18-G18</f>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11">
+        <v>16384</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="3">
+        <f>F19-G19</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="I19" s="16">
+        <f>G21-F21</f>
+        <v>4.4000000000000039E-2</v>
+      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H20" s="3">
+        <f>F20-G20</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3">
         <v>1024</v>
       </c>
-      <c r="F19" s="2">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="H19" s="1">
-        <f>F19-G19</f>
-        <v>-1.5000000000000013E-2</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="12">
-        <v>16384</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="H20" s="1">
-        <f>F20-G20</f>
-        <v>-3.5000000000000031E-2</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8"/>
       <c r="F21" s="3">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.75</v>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.78</v>
       </c>
       <c r="H21" s="3">
         <f>F21-G21</f>
-        <v>2.1000000000000019E-2</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="H22" s="3">
-        <f>F22-G22</f>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="H23" s="3">
-        <f>F23-G23</f>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4">
-        <v>128</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4">
-        <v>128</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J8:J10"/>
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D3:D16"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D3:D15"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C5:C21"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A26:H28"/>
-    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="A22:H24"/>
+    <mergeCell ref="A3:A21"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E11:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F49EC-B0DE-4EF0-A1A2-CF6F1C59CB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C9009-1492-4217-8F71-2428E8837754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H18" sqref="H16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C9009-1492-4217-8F71-2428E8837754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A68ED-C1A9-42F9-BC64-DE1B07BFD59A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H16:H18"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A68ED-C1A9-42F9-BC64-DE1B07BFD59A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CED54-2750-4735-A4B0-C574E075EE26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +222,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J8" sqref="J8:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,13 +625,13 @@
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="7">
@@ -651,11 +654,11 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="7"/>
       <c r="F4" s="1">
         <v>0.74</v>
@@ -674,11 +677,11 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
@@ -697,9 +700,9 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
@@ -720,9 +723,9 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1">
         <v>0.7</v>
@@ -743,9 +746,9 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="7"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
@@ -757,19 +760,19 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -784,13 +787,13 @@
         <v>-3.3000000000000029E-2</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -805,155 +808,133 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="I10" s="14"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="11">
-        <v>1044</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.748</v>
-      </c>
-      <c r="H11" s="1">
-        <f>F11-G11</f>
-        <v>-3.8000000000000034E-2</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2">
-        <v>0.749</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="H12" s="1">
-        <f>F12-G12</f>
-        <v>3.8000000000000034E-2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.753</v>
-      </c>
-      <c r="H13" s="3">
-        <f>F13-G13</f>
-        <v>3.6000000000000032E-2</v>
-      </c>
-      <c r="I13" s="16">
-        <f>G14-G13</f>
-        <v>3.7000000000000033E-2</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11">
+        <v>1044</v>
+      </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3">
-        <v>1</v>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>0.77400000000000002</v>
+        <v>0.71</v>
       </c>
       <c r="G14" s="2">
-        <v>0.79</v>
+        <v>0.748</v>
       </c>
       <c r="H14" s="1">
         <f>F14-G14</f>
-        <v>-1.6000000000000014E-2</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+        <v>-3.8000000000000034E-2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="11"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3">
-        <v>1024</v>
-      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="G15" s="2">
-        <v>0.78400000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="H15" s="1">
         <f>F15-G15</f>
-        <v>-2.8000000000000025E-2</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="11"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="D16" s="13"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="H16" s="3">
         <f>F16-G16</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="I16" s="16">
-        <f>G16-F18</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="J16" s="13"/>
+        <v>3.6000000000000032E-2</v>
+      </c>
+      <c r="I16" s="17">
+        <f>G17-G16</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="11"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -961,61 +942,59 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="G17" s="2">
-        <v>0.77900000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="H17" s="1">
         <f>F17-G17</f>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="I17" s="17"/>
+        <v>-1.6000000000000014E-2</v>
+      </c>
+      <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="11"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
       <c r="F18" s="2">
-        <v>0.77200000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G18" s="2">
-        <v>0.78700000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="H18" s="1">
         <f>F18-G18</f>
-        <v>-1.5000000000000013E-2</v>
-      </c>
-      <c r="I18" s="18"/>
+        <v>-2.8000000000000025E-2</v>
+      </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="11">
-        <v>16384</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="11" t="s">
-        <v>16</v>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="F19" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H19" s="1">
         <f>F19-G19</f>
-        <v>2.1000000000000019E-2</v>
-      </c>
-      <c r="I19" s="16">
-        <f>G21-F21</f>
-        <v>4.4000000000000039E-2</v>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="I19" s="17">
+        <f>G19-F21</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="J19" s="13"/>
     </row>
@@ -1023,99 +1002,171 @@
       <c r="A20" s="7"/>
       <c r="B20" s="11"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="F20" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H20" s="1">
         <f>F20-G20</f>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-      <c r="I20" s="13"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="I20" s="18"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <f>F21-G21</f>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11">
+        <v>16384</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="3">
+        <f>F22-G22</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="I22" s="17">
+        <f>G24-F24</f>
+        <v>4.4000000000000039E-2</v>
+      </c>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H23" s="3">
+        <f>F23-G23</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F24" s="3">
         <v>0.73599999999999999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G24" s="1">
         <v>0.78</v>
       </c>
-      <c r="H21" s="3">
-        <f>F21-G21</f>
+      <c r="H24" s="3">
+        <f>F24-G24</f>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="15"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J8:J10"/>
+  <mergeCells count="20">
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I13:I15"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D3:D15"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J16:J24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="B14:B21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C5:C21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D18"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A22:H24"/>
-    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A25:H27"/>
+    <mergeCell ref="A3:A24"/>
     <mergeCell ref="E3:E8"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5CED54-2750-4735-A4B0-C574E075EE26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77181F11-DABE-CA4A-9D04-E672BEC850DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="495" windowWidth="35835" windowHeight="20625" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +209,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,33 +243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,37 +562,37 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J13"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="13.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="4"/>
-    <col min="10" max="10" width="30.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="4" customWidth="1"/>
     <col min="11" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,20 +624,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -652,14 +655,14 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -667,7 +670,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H10" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H13" si="0">F4-G4</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -675,14 +678,14 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -698,12 +701,12 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="7"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -721,12 +724,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -744,12 +747,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -760,19 +763,19 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="8">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -786,14 +789,14 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -807,63 +810,87 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="F11" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="I11" s="8">
+        <f>G13-F13</f>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="F12" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.000000000000008E-3</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11">
+      <c r="F13" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.300000000000002E-2</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14">
         <v>1044</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -873,7 +900,7 @@
         <v>0.748</v>
       </c>
       <c r="H14" s="1">
-        <f>F14-G14</f>
+        <f t="shared" ref="H14:H24" si="1">F14-G14</f>
         <v>-3.8000000000000034E-2</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -883,12 +910,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -896,7 +923,7 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="H15" s="1">
-        <f>F15-G15</f>
+        <f t="shared" si="1"/>
         <v>3.8000000000000034E-2</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -906,12 +933,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="7"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
@@ -919,22 +946,22 @@
         <v>0.753</v>
       </c>
       <c r="H16" s="3">
-        <f>F16-G16</f>
+        <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="8">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -945,17 +972,17 @@
         <v>0.79</v>
       </c>
       <c r="H17" s="1">
-        <f>F17-G17</f>
+        <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -966,17 +993,17 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="H18" s="1">
-        <f>F18-G18</f>
+        <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -989,20 +1016,20 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="H19" s="1">
-        <f>F19-G19</f>
+        <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="8">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1013,17 +1040,17 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="H20" s="1">
-        <f>F20-G20</f>
+        <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
@@ -1034,19 +1061,19 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="H21" s="1">
-        <f>F21-G21</f>
+        <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11">
+      <c r="I21" s="12"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14">
         <v>16384</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3">
@@ -1059,20 +1086,20 @@
         <v>0.75</v>
       </c>
       <c r="H22" s="3">
-        <f>F22-G22</f>
+        <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="8">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1083,17 +1110,17 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="H23" s="3">
-        <f>F23-G23</f>
+        <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="3">
         <v>1024</v>
       </c>
@@ -1104,55 +1131,54 @@
         <v>0.78</v>
       </c>
       <c r="H24" s="3">
-        <f>F24-G24</f>
+        <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J16:J24"/>
-    <mergeCell ref="J8:J13"/>
+  <mergeCells count="21">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A25:H27"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="D3:D10"/>
     <mergeCell ref="B14:B21"/>
@@ -1162,11 +1188,13 @@
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D14:D18"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A25:H27"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J16:J24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77181F11-DABE-CA4A-9D04-E672BEC850DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5C1C75-D023-A048-8616-9EE097E0C3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,13 +116,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -186,10 +198,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,25 +225,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,8 +243,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,10 +625,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -628,16 +669,16 @@
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="15">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -656,13 +697,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -679,13 +720,13 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -702,11 +743,11 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -725,11 +766,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -748,11 +789,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -763,19 +804,19 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="18">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -789,14 +830,14 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -810,14 +851,14 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="13" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -829,21 +870,21 @@
       <c r="G11" s="1">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="24">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="25">
         <f>G13-F13</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -853,18 +894,18 @@
       <c r="G12" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="24">
         <f t="shared" si="0"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
@@ -874,23 +915,23 @@
       <c r="G13" s="1">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="24">
         <f t="shared" si="0"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="14">
         <v>1044</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -900,7 +941,7 @@
         <v>0.748</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H24" si="1">F14-G14</f>
+        <f t="shared" ref="H14:H27" si="1">F14-G14</f>
         <v>-3.8000000000000034E-2</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -911,11 +952,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -934,11 +975,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
@@ -949,19 +990,19 @@
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="18">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -975,14 +1016,14 @@
         <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -996,14 +1037,14 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -1019,17 +1060,17 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="18">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1043,14 +1084,14 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
@@ -1064,15 +1105,15 @@
         <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14">
+      <c r="A22" s="16"/>
+      <c r="B22" s="21">
         <v>16384</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="14" t="s">
         <v>16</v>
       </c>
@@ -1089,16 +1130,16 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="18">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="14"/>
       <c r="E23" s="3">
         <v>1</v>
@@ -1113,13 +1154,13 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="14"/>
       <c r="E24" s="3">
         <v>1024</v>
@@ -1134,67 +1175,137 @@
         <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="1"/>
+        <v>5.799999999999994E-2</v>
+      </c>
+      <c r="I25" s="18">
+        <f>G27-G25</f>
+        <v>0.18499999999999994</v>
+      </c>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="8">
+        <v>1024</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.14599999999999991</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="C5:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J16:J27"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A25:H27"/>
-    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="A28:H30"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="D3:D10"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C5:C24"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D14:D18"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J16:J24"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5C1C75-D023-A048-8616-9EE097E0C3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC667A23-6E82-1343-AD0B-57F849503E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,8 +123,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +141,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,11 +210,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,9 +298,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -603,7 +626,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +843,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="28">
         <v>0.73699999999999999</v>
       </c>
       <c r="G9" s="1">
@@ -844,7 +867,7 @@
       <c r="F10" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="28">
         <v>0.78600000000000003</v>
       </c>
       <c r="H10" s="1">
@@ -909,10 +932,10 @@
       <c r="E13" s="3">
         <v>1024</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="28">
         <v>0.76500000000000001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="28">
         <v>0.78800000000000003</v>
       </c>
       <c r="H13" s="24">
@@ -983,7 +1006,7 @@
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="29">
         <v>0.753</v>
       </c>
       <c r="H16" s="3">
@@ -1009,7 +1032,7 @@
       <c r="F17" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="28">
         <v>0.79</v>
       </c>
       <c r="H17" s="1">
@@ -1053,7 +1076,7 @@
       <c r="F19" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="28">
         <v>0.81200000000000006</v>
       </c>
       <c r="H19" s="1">
@@ -1095,7 +1118,7 @@
       <c r="E21" s="3">
         <v>1024</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="28">
         <v>0.77200000000000002</v>
       </c>
       <c r="G21" s="2">
@@ -1165,10 +1188,10 @@
       <c r="E24" s="3">
         <v>1024</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="29">
         <v>0.73599999999999999</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="28">
         <v>0.78</v>
       </c>
       <c r="H24" s="3">
@@ -1191,7 +1214,7 @@
       <c r="F25" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="30">
         <v>0.63800000000000001</v>
       </c>
       <c r="H25" s="8">
@@ -1236,7 +1259,7 @@
       <c r="F27" s="8">
         <v>0.67700000000000005</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="30">
         <v>0.82299999999999995</v>
       </c>
       <c r="H27" s="8">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC667A23-6E82-1343-AD0B-57F849503E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9CB0E-EC3F-7348-9D55-BE5671618E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -247,6 +247,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -286,12 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,6 +302,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +626,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,10 +648,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -689,19 +689,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="30">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -720,13 +720,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -743,13 +743,13 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -766,11 +766,11 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -789,11 +789,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -812,11 +812,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -827,23 +827,23 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="19">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>0.73699999999999999</v>
       </c>
       <c r="G9" s="1">
@@ -853,35 +853,35 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
       <c r="F10" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>0.78600000000000003</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -893,21 +893,21 @@
       <c r="G11" s="1">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="11">
         <f>G13-F13</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -917,44 +917,44 @@
       <c r="G12" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>0.76500000000000001</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15">
         <v>1044</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -975,11 +975,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -998,55 +998,55 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>0.753</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>0.79</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -1060,14 +1060,14 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="10" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -1076,24 +1076,24 @@
       <c r="F19" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>0.81200000000000006</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="19">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1107,18 +1107,18 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>0.77200000000000002</v>
       </c>
       <c r="G21" s="2">
@@ -1128,16 +1128,16 @@
         <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="21">
+      <c r="A22" s="17"/>
+      <c r="B22" s="22">
         <v>16384</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3">
@@ -1153,17 +1153,17 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="19">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1177,35 +1177,35 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="3">
         <v>1024</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>0.73599999999999999</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>0.78</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="21" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="8">
@@ -1214,24 +1214,24 @@
       <c r="F25" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>0.63800000000000001</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
         <v>5.799999999999994E-2</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="19">
         <f>G27-G25</f>
         <v>0.18499999999999994</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -1245,63 +1245,63 @@
         <f t="shared" si="1"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="8">
         <v>1024</v>
       </c>
       <c r="F27" s="8">
         <v>0.67700000000000005</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>0.82299999999999995</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="1"/>
         <v>-0.14599999999999991</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="7"/>
     </row>
   </sheetData>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9CB0E-EC3F-7348-9D55-BE5671618E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB908D-C7D1-EF4C-B700-7996820D940C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
@@ -301,10 +309,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +634,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +700,7 @@
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>128</v>
       </c>
       <c r="C3" s="3">
@@ -745,7 +753,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="17"/>
@@ -881,7 +889,7 @@
       <c r="A11" s="17"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -1214,7 +1222,7 @@
       <c r="F25" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="30">
         <v>0.63800000000000001</v>
       </c>
       <c r="H25" s="8">
@@ -1259,7 +1267,7 @@
       <c r="F27" s="8">
         <v>0.67700000000000005</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="30">
         <v>0.82299999999999995</v>
       </c>
       <c r="H27" s="8">

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB908D-C7D1-EF4C-B700-7996820D940C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850140F5-96E9-CD40-BF35-C3DAD3FD5830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -92,6 +94,54 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>CodeBERT</t>
+  </si>
+  <si>
+    <t>CodeGPTJava</t>
+  </si>
+  <si>
+    <t>GraphCodeBERT</t>
+  </si>
+  <si>
+    <t>RoBERTa</t>
+  </si>
+  <si>
+    <t>UniXCoder</t>
+  </si>
+  <si>
+    <t>Overall accuracy on the test</t>
+  </si>
+  <si>
+    <t>Setups</t>
+  </si>
+  <si>
+    <t>MO5</t>
+  </si>
+  <si>
+    <t>BO10</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>|Diff.|</t>
+  </si>
+  <si>
+    <t>MO10</t>
+  </si>
+  <si>
+    <t>Common setups: SGD, earlystopping, batch size = 128</t>
+  </si>
+  <si>
+    <t>BO10-MO10</t>
   </si>
 </sst>
 </file>
@@ -157,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -217,13 +267,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,6 +317,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -270,49 +380,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430593F-7819-094C-821C-EF73CC7AB90A}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,10 +742,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -697,19 +783,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="16">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="28">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -728,13 +814,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -751,13 +837,13 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -774,11 +860,11 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -797,11 +883,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -820,11 +906,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -835,23 +921,23 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="22">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="13">
         <v>0.73699999999999999</v>
       </c>
       <c r="G9" s="1">
@@ -861,35 +947,35 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
       <c r="F10" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="13">
         <v>0.78600000000000003</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -905,17 +991,17 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="28">
         <f>G13-F13</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -929,40 +1015,40 @@
         <f t="shared" si="0"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="13">
         <v>0.76500000000000001</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="13">
         <v>0.78800000000000003</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="18"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="32">
         <v>1044</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="28">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -983,11 +1069,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -1006,55 +1092,55 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="14">
         <v>0.753</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="22">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="13">
         <v>0.79</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="18"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -1068,14 +1154,14 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="11" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -1084,24 +1170,24 @@
       <c r="F19" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="13">
         <v>0.81200000000000006</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="22">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1115,18 +1201,18 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="13">
         <v>0.77200000000000002</v>
       </c>
       <c r="G21" s="2">
@@ -1136,16 +1222,16 @@
         <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="22">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19">
         <v>16384</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3">
@@ -1161,17 +1247,17 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="22">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1185,35 +1271,35 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="3">
         <v>1024</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="14">
         <v>0.73599999999999999</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="13">
         <v>0.78</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="17"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="22" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="8">
@@ -1222,24 +1308,24 @@
       <c r="F25" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="15">
         <v>0.63800000000000001</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
         <v>5.799999999999994E-2</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="22">
         <f>G27-G25</f>
         <v>0.18499999999999994</v>
       </c>
-      <c r="J25" s="17"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -1253,77 +1339,67 @@
         <f t="shared" si="1"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="8">
         <v>1024</v>
       </c>
       <c r="F27" s="8">
         <v>0.67700000000000005</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="15">
         <v>0.82299999999999995</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="1"/>
         <v>-0.14599999999999991</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J16:J27"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="I11:I13"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A28:H30"/>
     <mergeCell ref="E3:E8"/>
@@ -1337,8 +1413,1119 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="A3:A27"/>
     <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C5:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J16:J27"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F110CCE-BE23-314A-B917-2BDC38102970}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19.6640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3-C3</f>
+        <v>-3.2000000000000028E-2</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D23" si="0">B4-C4</f>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.874</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000015E-2</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.747</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.1000000000000036E-2</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.200000000000002E-2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1999999999999909E-2</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE61533D-2A89-5946-8389-2CF5CE9293E8}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f>ABS(C5-D5)</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="F5" s="35">
+        <f>E7</f>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="G5" s="35">
+        <f>AVERAGE(E5:E11)</f>
+        <v>2.8000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E32" si="0">ABS(C6-D6)</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.747</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000036E-2</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="F12" s="35">
+        <f>E17</f>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="G12" s="35">
+        <f>AVERAGE(E12:E18)</f>
+        <v>1.1285714285714296E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="F19" s="35">
+        <f>E24</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="G19" s="35">
+        <f>AVERAGE(E19:E25)</f>
+        <v>1.0571428571428565E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="37">
+        <v>0.872</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0.874</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="37">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="37">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="37">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="37">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999909E-2</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="F26" s="38">
+        <f>E29</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G26" s="38">
+        <f>AVERAGE(E26:E32)</f>
+        <v>3.7142857142857177E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <f>C19-C26</f>
+        <v>5.8999999999999941E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <f>D19-D26</f>
+        <v>6.5999999999999948E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27:I27" si="1">C20-C27</f>
+        <v>3.9000000000000035E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:I28" si="2">C21-C28</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:I29" si="3">C22-C29</f>
+        <v>3.3000000000000029E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:I30" si="4">C23-C30</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31:I31" si="5">C24-C31</f>
+        <v>8.6000000000000076E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="5"/>
+        <v>5.3000000000000047E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="1">
+        <f t="shared" ref="H32:I32" si="6">C25-C32</f>
+        <v>4.7000000000000042E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="6"/>
+        <v>6.5999999999999948E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="F19:F25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850140F5-96E9-CD40-BF35-C3DAD3FD5830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3AF1F-2D5C-794E-8EE9-27D96A82F763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>BO10-MO10</t>
+  </si>
+  <si>
+    <t>BO15</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,40 +332,19 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -377,22 +359,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -742,10 +757,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -786,7 +801,7 @@
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="29">
         <v>128</v>
       </c>
       <c r="C3" s="3">
@@ -795,7 +810,7 @@
       <c r="D3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="21">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -814,13 +829,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -837,13 +852,13 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -860,11 +875,11 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -883,11 +898,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -906,11 +921,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -921,7 +936,7 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="35">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
@@ -930,10 +945,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -947,14 +962,14 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -968,14 +983,14 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -991,17 +1006,17 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="21">
         <f>G13-F13</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -1015,14 +1030,14 @@
         <f t="shared" si="0"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
@@ -1036,19 +1051,19 @@
         <f t="shared" si="0"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="32">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28">
         <v>1044</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="21">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -1069,11 +1084,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -1092,11 +1107,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
@@ -1107,7 +1122,7 @@
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="35">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
@@ -1116,10 +1131,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -1133,14 +1148,14 @@
         <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -1154,14 +1169,14 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="28" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -1177,17 +1192,17 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="35">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1201,14 +1216,14 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
@@ -1222,16 +1237,16 @@
         <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="23"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="19">
+      <c r="A22" s="26"/>
+      <c r="B22" s="32">
         <v>16384</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3">
@@ -1247,17 +1262,17 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="35">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1271,14 +1286,14 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="3">
         <v>1024</v>
       </c>
@@ -1292,14 +1307,14 @@
         <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="8">
@@ -1315,17 +1330,17 @@
         <f t="shared" si="1"/>
         <v>5.799999999999994E-2</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="35">
         <f>G27-G25</f>
         <v>0.18499999999999994</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -1339,14 +1354,14 @@
         <f t="shared" si="1"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="8">
         <v>1024</v>
       </c>
@@ -1360,46 +1375,54 @@
         <f t="shared" si="1"/>
         <v>-0.14599999999999991</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J16:J27"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A28:H30"/>
     <mergeCell ref="E3:E8"/>
@@ -1415,14 +1438,6 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C5:C27"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J16:J27"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1430,417 +1445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F110CCE-BE23-314A-B917-2BDC38102970}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="19.6640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3-C3</f>
-        <v>-3.2000000000000028E-2</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>-1.5000000000000013E-2</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="1">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7000000000000033E-2</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="1">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="1">
-        <v>0.872</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.874</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5000000000000058E-2</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="1">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="1">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7000000000000015E-2</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.876</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.879</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="1">
-        <v>0.872</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.879</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>-7.0000000000000062E-3</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="1">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.747</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.1000000000000036E-2</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="1">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.200000000000002E-2</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="1">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000031E-2</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.879</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3000000000000012E-2</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.876</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000012E-2</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="1">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.1999999999999909E-2</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE61533D-2A89-5946-8389-2CF5CE9293E8}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="A1:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,32 +1462,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1907,7 +1516,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1923,17 +1532,17 @@
         <f>ABS(C5-D5)</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="41">
         <f>E7</f>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="41">
         <f>AVERAGE(E5:E11)</f>
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1947,15 +1556,15 @@
         <f t="shared" ref="E6:E32" si="0">ABS(C6-D6)</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="19">
         <v>0.77500000000000002</v>
       </c>
       <c r="D7" s="1">
@@ -1965,11 +1574,11 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1983,11 +1592,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
@@ -2001,11 +1610,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
@@ -2019,11 +1628,11 @@
         <f t="shared" si="0"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
@@ -2037,11 +1646,11 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -2057,17 +1666,17 @@
         <f t="shared" si="0"/>
         <v>1.5000000000000013E-2</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="41">
         <f>E17</f>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="41">
         <f>AVERAGE(E12:E18)</f>
         <v>1.1285714285714296E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -2081,11 +1690,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
@@ -2099,11 +1708,11 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
@@ -2117,11 +1726,11 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -2135,11 +1744,11 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -2153,11 +1762,11 @@
         <f t="shared" si="0"/>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -2171,146 +1780,146 @@
         <f t="shared" si="0"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="19">
         <v>0.69899999999999995</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="19">
         <v>0.70099999999999996</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="41">
         <f>E24</f>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="41">
         <f>AVERAGE(E19:E25)</f>
         <v>1.0571428571428565E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="19">
         <v>0.872</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="19">
         <v>0.874</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="19">
         <v>0.71099999999999997</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="19">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="19">
         <v>0.79500000000000004</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="19">
         <v>0.89100000000000001</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="19">
         <v>0.88500000000000001</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="19">
         <v>0.76200000000000001</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="36" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="36"/>
+      <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="19">
         <v>0.92300000000000004</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="19">
         <v>0.94499999999999995</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>2.1999999999999909E-2</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="11" t="s">
         <v>2</v>
       </c>
@@ -2319,7 +1928,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -2335,11 +1944,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="42">
         <f>E29</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="42">
         <f>AVERAGE(E26:E32)</f>
         <v>3.7142857142857177E-3</v>
       </c>
@@ -2353,7 +1962,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
@@ -2367,8 +1976,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="1">
         <f t="shared" ref="H27:I27" si="1">C20-C27</f>
         <v>3.9000000000000035E-2</v>
@@ -2379,7 +1988,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
@@ -2393,8 +2002,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="1">
         <f t="shared" ref="H28:I28" si="2">C21-C28</f>
         <v>1.2000000000000011E-2</v>
@@ -2405,7 +2014,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
@@ -2419,8 +2028,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="1">
         <f t="shared" ref="H29:I29" si="3">C22-C29</f>
         <v>3.3000000000000029E-2</v>
@@ -2431,7 +2040,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
@@ -2445,8 +2054,8 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="1">
         <f t="shared" ref="H30:I30" si="4">C23-C30</f>
         <v>2.1000000000000019E-2</v>
@@ -2457,7 +2066,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2080,8 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="1">
         <f t="shared" ref="H31:I31" si="5">C24-C31</f>
         <v>8.6000000000000076E-2</v>
@@ -2483,7 +2092,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="11" t="s">
         <v>25</v>
       </c>
@@ -2497,8 +2106,8 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="1">
         <f t="shared" ref="H32:I32" si="6">C25-C32</f>
         <v>4.7000000000000042E-2</v>
@@ -2510,11 +2119,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="G19:G25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="G26:G32"/>
@@ -2525,6 +2129,465 @@
     <mergeCell ref="F5:F11"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="F19:F25"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="G19:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1B603D-B298-EF4F-AC8B-F9AE80C9FB58}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E5" s="18">
+        <f>ABS(C5-D5)</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="F5" s="41">
+        <f>E7</f>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="G5" s="41">
+        <f>AVERAGE(E5:E11)</f>
+        <v>2.8000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" ref="E6:E25" si="0">ABS(C6-D6)</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.71</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.876</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.879</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.747</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000036E-2</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.879</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="F12" s="41">
+        <f>E17</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="G12" s="41">
+        <f>AVERAGE(E12:E18)</f>
+        <v>1.0571428571428565E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.872</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.874</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999909E-2</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="0"/>
+        <v>5.699999999999994E-2</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.874</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="G5:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3AF1F-2D5C-794E-8EE9-27D96A82F763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA35E78-4131-D54F-A179-65C1A731B97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,8 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +214,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -280,12 +292,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,7 +357,31 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,15 +396,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,13 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -407,17 +435,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +780,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -798,19 +821,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="34">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="29">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -829,13 +852,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -852,13 +875,13 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -875,11 +898,11 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -898,11 +921,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -921,11 +944,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -936,19 +959,19 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="23">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -962,14 +985,14 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -983,14 +1006,14 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -1006,17 +1029,17 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="29">
         <f>G13-F13</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -1030,14 +1053,14 @@
         <f t="shared" si="0"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
@@ -1051,19 +1074,19 @@
         <f t="shared" si="0"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="27"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28">
+      <c r="A14" s="24"/>
+      <c r="B14" s="33">
         <v>1044</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="29">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -1084,11 +1107,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -1107,11 +1130,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
@@ -1122,19 +1145,19 @@
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="23">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -1148,14 +1171,14 @@
         <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -1169,14 +1192,14 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="21" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -1192,17 +1215,17 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="23">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1216,14 +1239,14 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
@@ -1237,16 +1260,16 @@
         <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="32">
+      <c r="A22" s="24"/>
+      <c r="B22" s="37">
         <v>16384</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3">
@@ -1262,17 +1285,17 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="23">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1286,14 +1309,14 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="3">
         <v>1024</v>
       </c>
@@ -1307,14 +1330,14 @@
         <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="32" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="37" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="8">
@@ -1330,17 +1353,17 @@
         <f t="shared" si="1"/>
         <v>5.799999999999994E-2</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="23">
         <f>G27-G25</f>
         <v>0.18499999999999994</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -1354,14 +1377,14 @@
         <f t="shared" si="1"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="8">
         <v>1024</v>
       </c>
@@ -1375,54 +1398,46 @@
         <f t="shared" si="1"/>
         <v>-0.14599999999999991</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J16:J27"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="I11:I13"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A28:H30"/>
     <mergeCell ref="E3:E8"/>
@@ -1438,6 +1453,14 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C5:C27"/>
     <mergeCell ref="D25:D27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J16:J27"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1462,32 +1485,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1516,7 +1539,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1532,17 +1555,17 @@
         <f>ABS(C5-D5)</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="42">
         <f>E7</f>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="42">
         <f>AVERAGE(E5:E11)</f>
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1556,11 +1579,11 @@
         <f t="shared" ref="E6:E32" si="0">ABS(C6-D6)</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1574,11 +1597,11 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1592,11 +1615,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1610,11 +1633,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1628,11 +1651,11 @@
         <f t="shared" si="0"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1646,11 +1669,11 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1666,17 +1689,17 @@
         <f t="shared" si="0"/>
         <v>1.5000000000000013E-2</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="42">
         <f>E17</f>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="42">
         <f>AVERAGE(E12:E18)</f>
         <v>1.1285714285714296E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -1690,11 +1713,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
@@ -1708,11 +1731,11 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1726,11 +1749,11 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1744,11 +1767,11 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -1762,11 +1785,11 @@
         <f t="shared" si="0"/>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1780,11 +1803,11 @@
         <f t="shared" si="0"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1800,17 +1823,17 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="42">
         <f>E24</f>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="42">
         <f>AVERAGE(E19:E25)</f>
         <v>1.0571428571428565E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
@@ -1824,11 +1847,11 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1842,11 +1865,11 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
@@ -1860,11 +1883,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
@@ -1878,11 +1901,11 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
@@ -1896,15 +1919,15 @@
         <f t="shared" si="0"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="40" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
@@ -1918,8 +1941,8 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999909E-2</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1928,7 +1951,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1944,11 +1967,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="40">
         <f>E29</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="40">
         <f>AVERAGE(E26:E32)</f>
         <v>3.7142857142857177E-3</v>
       </c>
@@ -1962,7 +1985,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
@@ -1976,8 +1999,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="1">
         <f t="shared" ref="H27:I27" si="1">C20-C27</f>
         <v>3.9000000000000035E-2</v>
@@ -1988,7 +2011,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
@@ -2002,8 +2025,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="1">
         <f t="shared" ref="H28:I28" si="2">C21-C28</f>
         <v>1.2000000000000011E-2</v>
@@ -2014,7 +2037,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
@@ -2028,8 +2051,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="1">
         <f t="shared" ref="H29:I29" si="3">C22-C29</f>
         <v>3.3000000000000029E-2</v>
@@ -2040,7 +2063,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
@@ -2054,8 +2077,8 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="1">
         <f t="shared" ref="H30:I30" si="4">C23-C30</f>
         <v>2.1000000000000019E-2</v>
@@ -2066,7 +2089,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
@@ -2080,8 +2103,8 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="1">
         <f t="shared" ref="H31:I31" si="5">C24-C31</f>
         <v>8.6000000000000076E-2</v>
@@ -2092,7 +2115,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="11" t="s">
         <v>25</v>
       </c>
@@ -2106,8 +2129,8 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="1">
         <f t="shared" ref="H32:I32" si="6">C25-C32</f>
         <v>4.7000000000000042E-2</v>
@@ -2119,6 +2142,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="G19:G25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="G26:G32"/>
@@ -2129,11 +2157,6 @@
     <mergeCell ref="F5:F11"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="F19:F25"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="G19:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2144,42 +2167,43 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -2208,7 +2232,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -2224,17 +2248,17 @@
         <f>ABS(C5-D5)</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="42">
         <f>E7</f>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="42">
         <f>AVERAGE(E5:E11)</f>
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
@@ -2245,14 +2269,14 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="E6" s="18">
-        <f t="shared" ref="E6:E25" si="0">ABS(C6-D6)</f>
+        <f t="shared" ref="E6:E21" si="0">ABS(C6-D6)</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -2266,11 +2290,11 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
@@ -2284,11 +2308,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2302,11 +2326,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2320,11 +2344,11 @@
         <f t="shared" si="0"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2338,11 +2362,11 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -2358,17 +2382,17 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="42">
         <f>E17</f>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="42">
         <f>AVERAGE(E12:E18)</f>
         <v>1.0571428571428565E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
@@ -2382,11 +2406,11 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
@@ -2400,11 +2424,11 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
@@ -2418,11 +2442,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
@@ -2436,11 +2460,11 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
@@ -2454,11 +2478,11 @@
         <f t="shared" si="0"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
@@ -2472,122 +2496,151 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999909E-2</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="22">
         <v>0.70399999999999996</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="46">
         <v>0.64700000000000002</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="46">
         <f t="shared" si="0"/>
         <v>5.699999999999994E-2</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="22">
         <v>0.874</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="22">
         <v>0.88100000000000001</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="22">
         <v>0.73899999999999999</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="22">
         <v>0.71499999999999997</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="C24" s="22">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E24" s="21">
+        <f>ABS(C24-D24)</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="G5:G11"/>
     <mergeCell ref="G19:G25"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="G12:G18"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="G5:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA35E78-4131-D54F-A179-65C1A731B97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22F5C0E-F75B-43EE-BE33-E7B5A9FA8070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -298,7 +292,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,22 +360,16 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -396,6 +384,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,13 +414,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,7 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,34 +764,34 @@
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="4"/>
-    <col min="10" max="10" width="30.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -820,20 +823,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="35">
         <v>128</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -851,14 +854,14 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="35"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -874,14 +877,14 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="34" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -897,12 +900,12 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="29"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -920,12 +923,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="29"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -943,12 +946,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="29"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -959,19 +962,19 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="41">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="24"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -985,14 +988,14 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="25"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -1006,14 +1009,14 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -1029,17 +1032,17 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <f>G13-F13</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -1053,14 +1056,14 @@
         <f t="shared" si="0"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
@@ -1074,19 +1077,19 @@
         <f t="shared" si="0"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="33">
+      <c r="I13" s="27"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="34">
         <v>1044</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -1106,12 +1109,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -1129,12 +1132,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
@@ -1145,19 +1148,19 @@
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="41">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="24"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -1171,14 +1174,14 @@
         <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="25"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -1192,14 +1195,14 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="29" t="s">
+      <c r="I18" s="33"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -1215,17 +1218,17 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="41">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="29"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1239,14 +1242,14 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="29"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
@@ -1260,16 +1263,16 @@
         <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="37">
+      <c r="I21" s="43"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="38">
         <v>16384</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3">
@@ -1285,17 +1288,17 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="41">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="33"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1309,14 +1312,14 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="33"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="3">
         <v>1024</v>
       </c>
@@ -1330,14 +1333,14 @@
         <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="37" t="s">
+      <c r="I24" s="33"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="8">
@@ -1353,17 +1356,17 @@
         <f t="shared" si="1"/>
         <v>5.799999999999994E-2</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="41">
         <f>G27-G25</f>
         <v>0.18499999999999994</v>
       </c>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="38"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -1377,14 +1380,14 @@
         <f t="shared" si="1"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="39"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="8">
         <v>1024</v>
       </c>
@@ -1398,46 +1401,54 @@
         <f t="shared" si="1"/>
         <v>-0.14599999999999991</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J16:J27"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A28:H30"/>
     <mergeCell ref="E3:E8"/>
@@ -1453,14 +1464,6 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C5:C27"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J16:J27"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1475,47 +1478,47 @@
       <selection activeCell="C24" sqref="A1:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -1538,8 +1541,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1555,17 +1558,17 @@
         <f>ABS(C5-D5)</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="47">
         <f>E7</f>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="47">
         <f>AVERAGE(E5:E11)</f>
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1579,11 +1582,11 @@
         <f t="shared" ref="E6:E32" si="0">ABS(C6-D6)</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1597,11 +1600,11 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1615,11 +1618,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1633,11 +1636,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1651,11 +1654,11 @@
         <f t="shared" si="0"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1669,11 +1672,11 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1689,17 +1692,17 @@
         <f t="shared" si="0"/>
         <v>1.5000000000000013E-2</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="47">
         <f>E17</f>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="47">
         <f>AVERAGE(E12:E18)</f>
         <v>1.1285714285714296E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -1713,11 +1716,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
@@ -1731,11 +1734,11 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1749,11 +1752,11 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1767,11 +1770,11 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -1785,11 +1788,11 @@
         <f t="shared" si="0"/>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1803,11 +1806,11 @@
         <f t="shared" si="0"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1823,17 +1826,17 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="47">
         <f>E24</f>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="47">
         <f>AVERAGE(E19:E25)</f>
         <v>1.0571428571428565E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
       <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
@@ -1847,11 +1850,11 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1865,11 +1868,11 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
@@ -1883,11 +1886,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
       <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
@@ -1901,11 +1904,11 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
       <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
@@ -1919,15 +1922,15 @@
         <f t="shared" si="0"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="45" t="s">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
       <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
@@ -1941,8 +1944,8 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999909E-2</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1950,8 +1953,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1967,11 +1970,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="48">
         <f>E29</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="48">
         <f>AVERAGE(E26:E32)</f>
         <v>3.7142857142857177E-3</v>
       </c>
@@ -1984,8 +1987,8 @@
         <v>6.5999999999999948E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
       <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
@@ -1999,8 +2002,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="1">
         <f t="shared" ref="H27:I27" si="1">C20-C27</f>
         <v>3.9000000000000035E-2</v>
@@ -2010,8 +2013,8 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
       <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
@@ -2025,8 +2028,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="1">
         <f t="shared" ref="H28:I28" si="2">C21-C28</f>
         <v>1.2000000000000011E-2</v>
@@ -2036,8 +2039,8 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
       <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
@@ -2051,8 +2054,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="1">
         <f t="shared" ref="H29:I29" si="3">C22-C29</f>
         <v>3.3000000000000029E-2</v>
@@ -2062,8 +2065,8 @@
         <v>2.6000000000000023E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
       <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
@@ -2077,8 +2080,8 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="1">
         <f t="shared" ref="H30:I30" si="4">C23-C30</f>
         <v>2.1000000000000019E-2</v>
@@ -2088,8 +2091,8 @@
         <v>1.9000000000000017E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
       <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
@@ -2103,8 +2106,8 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="1">
         <f t="shared" ref="H31:I31" si="5">C24-C31</f>
         <v>8.6000000000000076E-2</v>
@@ -2114,8 +2117,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
       <c r="B32" s="11" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2132,8 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="1">
         <f t="shared" ref="H32:I32" si="6">C25-C32</f>
         <v>4.7000000000000042E-2</v>
@@ -2142,11 +2145,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="G19:G25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="G26:G32"/>
@@ -2157,6 +2155,11 @@
     <mergeCell ref="F5:F11"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="F19:F25"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="G19:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2166,49 +2169,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1B603D-B298-EF4F-AC8B-F9AE80C9FB58}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -2231,8 +2234,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -2248,17 +2251,17 @@
         <f>ABS(C5-D5)</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="47">
         <f>E7</f>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="47">
         <f>AVERAGE(E5:E11)</f>
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
@@ -2269,14 +2272,14 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="E6" s="18">
-        <f t="shared" ref="E6:E21" si="0">ABS(C6-D6)</f>
+        <f t="shared" ref="E6:E23" si="0">ABS(C6-D6)</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -2290,11 +2293,11 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
@@ -2308,11 +2311,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2326,11 +2329,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2344,11 +2347,11 @@
         <f t="shared" si="0"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2362,11 +2365,11 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -2375,24 +2378,24 @@
       <c r="C12" s="16">
         <v>0.69899999999999995</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="24">
         <v>0.70099999999999996</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="47">
         <f>E17</f>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="47">
         <f>AVERAGE(E12:E18)</f>
         <v>1.0571428571428565E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
@@ -2406,11 +2409,11 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
@@ -2424,29 +2427,29 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="16">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="24">
         <v>0.79500000000000004</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
       <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
@@ -2460,11 +2463,11 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
       <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
@@ -2478,29 +2481,29 @@
         <f t="shared" si="0"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
       <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="24">
         <v>0.92300000000000004</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="24">
         <v>0.94499999999999995</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>2.1999999999999909E-2</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2509,22 +2512,24 @@
       <c r="C19" s="22">
         <v>0.70399999999999996</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="26">
         <v>0.64700000000000002</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="26">
         <f t="shared" si="0"/>
         <v>5.699999999999994E-2</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="F19" s="47">
+        <f>E19</f>
+        <v>5.699999999999994E-2</v>
+      </c>
+      <c r="G19" s="47">
+        <f>AVERAGE(E19:E25)</f>
+        <v>1.8285714285714287E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
       <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
@@ -2538,11 +2543,11 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
@@ -2556,45 +2561,47 @@
         <f t="shared" si="0"/>
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
       <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+      <c r="C22" s="23">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
       <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
+      <c r="C23" s="23">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
@@ -2608,39 +2615,40 @@
         <f>ABS(C24-D24)</f>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="21">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E25" s="25">
+        <f>ABS(C25-D25)</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="G5:G11"/>
     <mergeCell ref="G19:G25"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="G12:G18"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="G5:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22F5C0E-F75B-43EE-BE33-E7B5A9FA8070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0571B-FF59-4A0B-8313-0BB4F5F8702D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -2169,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1B603D-B298-EF4F-AC8B-F9AE80C9FB58}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/POS Code/Experiments/attachments/SeedInvestigation.xlsx
+++ b/POS Code/Experiments/attachments/SeedInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0571B-FF59-4A0B-8313-0BB4F5F8702D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487AB16-D9CF-4644-BAC7-6A61BE9FC309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20625" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="2" xr2:uid="{7F4400B1-F019-3742-A02D-88C6BE0D31E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -139,6 +145,12 @@
   </si>
   <si>
     <t>BO15</t>
+  </si>
+  <si>
+    <t>BO15 - BO10</t>
+  </si>
+  <si>
+    <t>BO10-BO5</t>
   </si>
 </sst>
 </file>
@@ -292,7 +304,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +384,27 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,15 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,13 +438,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -431,15 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -764,34 +779,34 @@
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="13.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="4"/>
-    <col min="10" max="10" width="30.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="4" customWidth="1"/>
     <col min="11" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -823,11 +838,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="39">
         <v>128</v>
       </c>
       <c r="C3" s="3">
@@ -836,7 +851,7 @@
       <c r="D3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="34">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -854,14 +869,14 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="1">
         <v>0.74</v>
       </c>
@@ -877,14 +892,14 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="35" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="1">
         <v>0.73099999999999998</v>
       </c>
@@ -900,12 +915,12 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="27"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="1">
         <v>0.70799999999999996</v>
       </c>
@@ -923,12 +938,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="27"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="1">
         <v>0.7</v>
       </c>
@@ -946,12 +961,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="27"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="3">
         <v>0.76900000000000002</v>
       </c>
@@ -962,7 +977,7 @@
         <f>F8-G8</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="28">
         <f>G10-F9</f>
         <v>4.9000000000000044E-2</v>
       </c>
@@ -970,11 +985,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="32"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -988,14 +1003,14 @@
         <f t="shared" si="0"/>
         <v>-3.3000000000000029E-2</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="33"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="3">
         <v>1024</v>
       </c>
@@ -1009,14 +1024,14 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="35" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="39" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3">
@@ -1032,17 +1047,17 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="34">
         <f>G13-F13</f>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -1056,14 +1071,14 @@
         <f t="shared" si="0"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="3">
         <v>1024</v>
       </c>
@@ -1077,19 +1092,19 @@
         <f t="shared" si="0"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34">
+      <c r="I13" s="34"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="38">
         <v>1044</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="34">
         <v>0</v>
       </c>
       <c r="F14" s="2">
@@ -1109,12 +1124,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="27"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="2">
         <v>0.749</v>
       </c>
@@ -1132,12 +1147,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="27"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="3">
         <v>0.78900000000000003</v>
       </c>
@@ -1148,7 +1163,7 @@
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="28">
         <f>G17-G16</f>
         <v>3.7000000000000033E-2</v>
       </c>
@@ -1156,11 +1171,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="32"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -1174,14 +1189,14 @@
         <f t="shared" si="1"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="33"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="3">
         <v>1024</v>
       </c>
@@ -1195,14 +1210,14 @@
         <f t="shared" si="1"/>
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="27" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -1218,17 +1233,17 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="28">
         <f>G19-F21</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="27"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1242,14 +1257,14 @@
         <f t="shared" si="1"/>
         <v>-5.0000000000000044E-3</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="27"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="3">
         <v>1024</v>
       </c>
@@ -1263,16 +1278,16 @@
         <f t="shared" si="1"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="38">
+      <c r="I21" s="33"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="42">
         <v>16384</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="3">
@@ -1288,17 +1303,17 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="28">
         <f>G24-F24</f>
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1312,14 +1327,14 @@
         <f t="shared" si="1"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="3">
         <v>1024</v>
       </c>
@@ -1333,14 +1348,14 @@
         <f t="shared" si="1"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="38" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="8">
@@ -1356,17 +1371,17 @@
         <f t="shared" si="1"/>
         <v>5.799999999999994E-2</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="28">
         <f>G27-G25</f>
         <v>0.18499999999999994</v>
       </c>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="39"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -1380,14 +1395,14 @@
         <f t="shared" si="1"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="40"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="8">
         <v>1024</v>
       </c>
@@ -1401,54 +1416,46 @@
         <f t="shared" si="1"/>
         <v>-0.14599999999999991</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J16:J27"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="I11:I13"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A28:H30"/>
     <mergeCell ref="E3:E8"/>
@@ -1464,6 +1471,14 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C5:C27"/>
     <mergeCell ref="D25:D27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J16:J27"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1478,47 +1493,47 @@
       <selection activeCell="C24" sqref="A1:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -1541,8 +1556,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1567,8 +1582,8 @@
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1582,11 +1597,11 @@
         <f t="shared" ref="E6:E32" si="0">ABS(C6-D6)</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1600,11 +1615,11 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1618,11 +1633,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1636,11 +1651,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
       <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1654,11 +1669,11 @@
         <f t="shared" si="0"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
       <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1672,11 +1687,11 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1701,8 +1716,8 @@
         <v>1.1285714285714296E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -1716,11 +1731,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
@@ -1734,11 +1749,11 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1752,11 +1767,11 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1770,11 +1785,11 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -1788,11 +1803,11 @@
         <f t="shared" si="0"/>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1806,11 +1821,11 @@
         <f t="shared" si="0"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1835,8 +1850,8 @@
         <v>1.0571428571428565E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
       <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
@@ -1850,11 +1865,11 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1868,11 +1883,11 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
@@ -1886,11 +1901,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
       <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
@@ -1904,11 +1919,11 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
       <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
@@ -1922,15 +1937,15 @@
         <f t="shared" si="0"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="46" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
       <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
@@ -1944,8 +1959,8 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999909E-2</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1953,8 +1968,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1970,11 +1985,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="45">
         <f>E29</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="45">
         <f>AVERAGE(E26:E32)</f>
         <v>3.7142857142857177E-3</v>
       </c>
@@ -1987,8 +2002,8 @@
         <v>6.5999999999999948E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
       <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
@@ -2002,8 +2017,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="1">
         <f t="shared" ref="H27:I27" si="1">C20-C27</f>
         <v>3.9000000000000035E-2</v>
@@ -2013,8 +2028,8 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
       <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
@@ -2028,8 +2043,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="1">
         <f t="shared" ref="H28:I28" si="2">C21-C28</f>
         <v>1.2000000000000011E-2</v>
@@ -2039,8 +2054,8 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="34"/>
       <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
@@ -2054,8 +2069,8 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="1">
         <f t="shared" ref="H29:I29" si="3">C22-C29</f>
         <v>3.3000000000000029E-2</v>
@@ -2065,8 +2080,8 @@
         <v>2.6000000000000023E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
@@ -2080,8 +2095,8 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="1">
         <f t="shared" ref="H30:I30" si="4">C23-C30</f>
         <v>2.1000000000000019E-2</v>
@@ -2091,8 +2106,8 @@
         <v>1.9000000000000017E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
       <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
@@ -2106,8 +2121,8 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="1">
         <f t="shared" ref="H31:I31" si="5">C24-C31</f>
         <v>8.6000000000000076E-2</v>
@@ -2117,8 +2132,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
       <c r="B32" s="11" t="s">
         <v>25</v>
       </c>
@@ -2132,8 +2147,8 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="1">
         <f t="shared" ref="H32:I32" si="6">C25-C32</f>
         <v>4.7000000000000042E-2</v>
@@ -2145,6 +2160,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="G19:G25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="G26:G32"/>
@@ -2155,11 +2175,6 @@
     <mergeCell ref="F5:F11"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="F19:F25"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="G19:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2167,51 +2182,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1B603D-B298-EF4F-AC8B-F9AE80C9FB58}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -2234,8 +2249,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -2260,8 +2275,8 @@
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
       <c r="B6" s="16" t="s">
         <v>21</v>
       </c>
@@ -2275,11 +2290,11 @@
         <f t="shared" ref="E6:E23" si="0">ABS(C6-D6)</f>
         <v>3.7000000000000033E-2</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -2293,11 +2308,11 @@
         <f t="shared" si="0"/>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
@@ -2311,11 +2326,11 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2329,11 +2344,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
       <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2347,11 +2362,11 @@
         <f t="shared" si="0"/>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
       <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2365,11 +2380,11 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -2394,8 +2409,8 @@
         <v>1.0571428571428565E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
       <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
@@ -2409,11 +2424,11 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
@@ -2427,11 +2442,11 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
@@ -2445,11 +2460,11 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
       <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
@@ -2463,11 +2478,11 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
       <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
@@ -2481,11 +2496,11 @@
         <f t="shared" si="0"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
       <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
@@ -2499,11 +2514,19 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999909E-2</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2527,9 +2550,25 @@
         <f>AVERAGE(E19:E25)</f>
         <v>1.8285714285714287E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="H19" s="27">
+        <f>C19-C12</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="I19" s="27">
+        <f>D19-D12</f>
+        <v>-5.3999999999999937E-2</v>
+      </c>
+      <c r="J19" s="27">
+        <f>C12-C5</f>
+        <v>9.8999999999999977E-2</v>
+      </c>
+      <c r="K19" s="27">
+        <f>D12-D5</f>
+        <v>6.899999999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
       <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
@@ -2543,11 +2582,27 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="27">
+        <f t="shared" ref="H20:I20" si="1">C20-C13</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" ref="J20:K20" si="2">C13-C6</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
@@ -2561,11 +2616,27 @@
         <f t="shared" si="0"/>
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="27">
+        <f t="shared" ref="H21:I21" si="3">C21-C14</f>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" ref="J21:K21" si="4">C14-C7</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
       <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
@@ -2579,11 +2650,27 @@
         <f t="shared" si="0"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="27">
+        <f t="shared" ref="H22:I22" si="5">C22-C15</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" ref="J22:K22" si="6">C15-C8</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="K22" s="27">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
       <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
@@ -2597,11 +2684,27 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="27">
+        <f t="shared" ref="H23:I23" si="7">C23-C16</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" ref="J23:K23" si="8">C16-C9</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
@@ -2615,11 +2718,27 @@
         <f>ABS(C24-D24)</f>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="27">
+        <f t="shared" ref="H24:I24" si="9">C24-C17</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="9"/>
+        <v>4.6000000000000041E-2</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" ref="J24:K24" si="10">C17-C10</f>
+        <v>9.1000000000000081E-2</v>
+      </c>
+      <c r="K24" s="27">
+        <f t="shared" si="10"/>
+        <v>1.5000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
@@ -2633,22 +2752,40 @@
         <f>ABS(C25-D25)</f>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="27">
+        <f t="shared" ref="H25:I25" si="11">C25-C18</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="11"/>
+        <v>-1.0999999999999899E-2</v>
+      </c>
+      <c r="J25" s="27">
+        <f t="shared" ref="J25:K25" si="12">C18-C11</f>
+        <v>3.1000000000000028E-2</v>
+      </c>
+      <c r="K25" s="27">
+        <f t="shared" si="12"/>
+        <v>6.5999999999999948E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="G5:G11"/>
     <mergeCell ref="G19:G25"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="G12:G18"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="G5:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
